--- a/07. Pemodelan Data (Data Mining)/perhitungan manual/perhitungan-cnn-new.xlsx
+++ b/07. Pemodelan Data (Data Mining)/perhitungan manual/perhitungan-cnn-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 8\Skripsi\CODINGAN\TAHAPAN\KLASIFIKASI-EMOSI-PADA-TEKS-MEDIA-SOSIAL-X-TWITTER-INDONESIA-MENGGUNAKAN-METODE-NEURAL-NETWORK\07. Pemodelan Data (Data Mining)\perhitungan manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD54DE79-A3FF-4954-83C2-E759CB9E2450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA648D4-90F4-4ADA-A0D8-A8C1AE38DB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{88FFD529-58F7-4079-8806-302EC4FF7EF8}"/>
   </bookViews>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D80-C985-4274-AF19-712620526D47}">
   <dimension ref="A1:BG288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M272" sqref="M272"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L275" sqref="L275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18839,7 +18839,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="273" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B273" s="20"/>
+      <c r="C273" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="D273" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="E273" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="F273" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="G273" s="20">
+        <v>0.83</v>
+      </c>
       <c r="H273" s="20">
         <v>0.83</v>
       </c>
@@ -18853,77 +18869,357 @@
       </c>
       <c r="K273" s="21"/>
     </row>
-    <row r="274" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B274" s="22"/>
+      <c r="C274" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="D274" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="E274" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="F274" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="G274" s="22">
+        <v>-0.65</v>
+      </c>
       <c r="H274" s="22">
         <v>-0.65</v>
       </c>
-    </row>
-    <row r="275" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I274" cm="1">
+        <f t="array" ref="I274" xml:space="preserve"> SUMPRODUCT(G273:G288,TRANSPOSE(I267:X267))</f>
+        <v>2.6704383699999985</v>
+      </c>
+      <c r="J274">
+        <f t="shared" ref="J274:J278" si="24">EXP(I274) / (EXP(I274) + EXP(I274) + EXP(I274))</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B275" s="22"/>
+      <c r="C275" s="22">
+        <v>-0.37</v>
+      </c>
+      <c r="D275" s="22">
+        <v>-0.37</v>
+      </c>
+      <c r="E275" s="22">
+        <v>-0.37</v>
+      </c>
+      <c r="F275" s="22">
+        <v>-0.37</v>
+      </c>
+      <c r="G275" s="22">
+        <v>-0.37</v>
+      </c>
       <c r="H275" s="22">
         <v>-0.37</v>
       </c>
-    </row>
-    <row r="276" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I275" cm="1">
+        <f t="array" ref="I275" xml:space="preserve"> SUMPRODUCT(F273:F288,TRANSPOSE(I267:X267))</f>
+        <v>2.6704383699999985</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="24"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B276" s="22"/>
+      <c r="C276" s="22">
+        <v>-0.6</v>
+      </c>
+      <c r="D276" s="22">
+        <v>-0.6</v>
+      </c>
+      <c r="E276" s="22">
+        <v>-0.6</v>
+      </c>
+      <c r="F276" s="22">
+        <v>-0.6</v>
+      </c>
+      <c r="G276" s="22">
+        <v>-0.6</v>
+      </c>
       <c r="H276" s="22">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="277" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I276" cm="1">
+        <f t="array" ref="I276" xml:space="preserve"> SUMPRODUCT(E273:E288,TRANSPOSE(I267:X267))</f>
+        <v>2.6704383699999985</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="24"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B277" s="22"/>
+      <c r="C277" s="22">
+        <v>-0.91</v>
+      </c>
+      <c r="D277" s="22">
+        <v>-0.91</v>
+      </c>
+      <c r="E277" s="22">
+        <v>-0.91</v>
+      </c>
+      <c r="F277" s="22">
+        <v>-0.91</v>
+      </c>
+      <c r="G277" s="22">
+        <v>-0.91</v>
+      </c>
       <c r="H277" s="22">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="278" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I277" cm="1">
+        <f t="array" ref="I277" xml:space="preserve"> SUMPRODUCT(D273:D288,TRANSPOSE(I267:X267))</f>
+        <v>2.6704383699999985</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="24"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B278" s="22"/>
+      <c r="C278" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="D278" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="E278" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="F278" s="22">
+        <v>-0.65</v>
+      </c>
+      <c r="G278" s="22">
+        <v>-0.65</v>
+      </c>
       <c r="H278" s="22">
         <v>-0.65</v>
       </c>
-    </row>
-    <row r="279" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I278" cm="1">
+        <f t="array" ref="I278" xml:space="preserve"> SUMPRODUCT(C273:C288,TRANSPOSE(I267:X267))</f>
+        <v>2.6704383699999985</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="24"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B279" s="22"/>
+      <c r="C279" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D279" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E279" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F279" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G279" s="22">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="H279" s="22">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="280" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B280" s="22"/>
+      <c r="C280" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="D280" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="E280" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="F280" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="G280" s="22">
+        <v>0.04</v>
+      </c>
       <c r="H280" s="22">
         <v>0.04</v>
       </c>
     </row>
-    <row r="281" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B281" s="22"/>
+      <c r="C281" s="22">
+        <v>-0.98</v>
+      </c>
+      <c r="D281" s="22">
+        <v>-0.98</v>
+      </c>
+      <c r="E281" s="22">
+        <v>-0.98</v>
+      </c>
+      <c r="F281" s="22">
+        <v>-0.98</v>
+      </c>
+      <c r="G281" s="22">
+        <v>-0.98</v>
+      </c>
       <c r="H281" s="22">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="282" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B282" s="22"/>
+      <c r="C282" s="22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="D282" s="22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="E282" s="22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F282" s="22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G282" s="22">
+        <v>-0.28000000000000003</v>
+      </c>
       <c r="H282" s="22">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="283" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B283" s="22"/>
+      <c r="C283" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="D283" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="E283" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="F283" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="G283" s="22">
+        <v>0.45</v>
+      </c>
       <c r="H283" s="22">
         <v>0.45</v>
       </c>
     </row>
-    <row r="284" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B284" s="22"/>
+      <c r="C284" s="22">
+        <v>-0.09</v>
+      </c>
+      <c r="D284" s="22">
+        <v>-0.09</v>
+      </c>
+      <c r="E284" s="22">
+        <v>-0.09</v>
+      </c>
+      <c r="F284" s="22">
+        <v>-0.09</v>
+      </c>
+      <c r="G284" s="22">
+        <v>-0.09</v>
+      </c>
       <c r="H284" s="22">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="285" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B285" s="22"/>
+      <c r="C285" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="D285" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="E285" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="F285" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="G285" s="22">
+        <v>0.95</v>
+      </c>
       <c r="H285" s="22">
         <v>0.95</v>
       </c>
     </row>
-    <row r="286" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B286" s="22"/>
+      <c r="C286" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="D286" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="E286" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="F286" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="G286" s="22">
+        <v>0.78</v>
+      </c>
       <c r="H286" s="22">
         <v>0.78</v>
       </c>
     </row>
-    <row r="287" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B287" s="22"/>
+      <c r="C287" s="22">
+        <v>-0.13</v>
+      </c>
+      <c r="D287" s="22">
+        <v>-0.13</v>
+      </c>
+      <c r="E287" s="22">
+        <v>-0.13</v>
+      </c>
+      <c r="F287" s="22">
+        <v>-0.13</v>
+      </c>
+      <c r="G287" s="22">
+        <v>-0.13</v>
+      </c>
       <c r="H287" s="22">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="288" spans="8:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B288" s="22"/>
+      <c r="C288" s="22">
+        <v>-0.52</v>
+      </c>
+      <c r="D288" s="22">
+        <v>-0.52</v>
+      </c>
+      <c r="E288" s="22">
+        <v>-0.52</v>
+      </c>
+      <c r="F288" s="22">
+        <v>-0.52</v>
+      </c>
+      <c r="G288" s="22">
+        <v>-0.52</v>
+      </c>
       <c r="H288" s="22">
         <v>-0.52</v>
       </c>
